--- a/莆田项目部公共开支（王曦强垫付见：其它，截止20170724）.xlsx
+++ b/莆田项目部公共开支（王曦强垫付见：其它，截止20170724）.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="逐日消费统计表" sheetId="5" r:id="rId1"/>
@@ -22,9 +22,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">其它!$C$2:$C$45</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">人员固定消费表!$C$1:$C$22</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -1044,8 +1044,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1388,29 +1388,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="3" width="9.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="79.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="B24">
         <v>20170711</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="B25">
         <v>20170712</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="B26">
         <v>20170713</v>
       </c>
@@ -1897,22 +1897,22 @@
         <v>236</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6">
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="E32" s="1"/>
     </row>
   </sheetData>
@@ -1923,23 +1923,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.58203125" style="4"/>
-    <col min="2" max="2" width="9.08203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="46.08203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.625" style="4"/>
+    <col min="2" max="2" width="9.125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="46.125" style="4" customWidth="1"/>
     <col min="4" max="4" width="12.25" style="4" customWidth="1"/>
-    <col min="5" max="5" width="34.08203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="34.125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>571.29999999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>156.78</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>135.30000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>124.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>244.97</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>227.4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>252.79000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>45.8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="B16" s="4">
         <v>20170703</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4">
       <c r="B17" s="4">
         <v>20170704</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4">
       <c r="B18" s="4">
         <v>20170705</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4">
       <c r="B19" s="4">
         <v>20170706</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4">
       <c r="B20" s="4">
         <v>20170707</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4">
       <c r="B21" s="4">
         <v>20170708</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4">
       <c r="B22" s="4">
         <v>20170709</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4">
       <c r="B23" s="4">
         <v>20170710</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>272.89999999999998</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4">
       <c r="B24">
         <v>20170711</v>
       </c>
@@ -2263,27 +2263,27 @@
         <v>272.89999999999998</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4">
       <c r="B25"/>
       <c r="C25" s="1"/>
       <c r="D25"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4">
       <c r="B26"/>
       <c r="C26" s="1"/>
       <c r="D26"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4">
       <c r="B27"/>
       <c r="C27" s="1"/>
       <c r="D27"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4">
       <c r="B28"/>
       <c r="C28" s="1"/>
       <c r="D28"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4">
       <c r="B29"/>
       <c r="C29" s="1"/>
       <c r="D29"/>
@@ -2296,24 +2296,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I75"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.58203125" style="1"/>
-    <col min="2" max="2" width="9.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.625" style="1"/>
+    <col min="2" max="2" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.08203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>42.25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>42.25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>42.25</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>42.25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2585,7 +2585,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2659,7 +2659,7 @@
       <c r="F19"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>43.5</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>43.5</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>39.195</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>39.195</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>39.195</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>39.195</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>39.195</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>33.825000000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>33.825000000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>33.825000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>33.825000000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>46.25</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -3160,7 +3160,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>35.25</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>35.25</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>18.25</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -3301,7 +3301,7 @@
         <v>18.25</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>29.166666666666664</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>29.166666666666664</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>29.166666666666664</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>45.8</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5">
       <c r="B62" s="1">
         <v>20170703</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>35.75</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5">
       <c r="B63" s="1">
         <v>20170703</v>
       </c>
@@ -3439,7 +3439,7 @@
         <v>35.75</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5">
       <c r="B64" s="1">
         <v>20170703</v>
       </c>
@@ -3454,7 +3454,7 @@
         <v>35.75</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:6">
       <c r="B65" s="1">
         <v>20170703</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>35.75</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:6">
       <c r="B66" s="1">
         <v>20170704</v>
       </c>
@@ -3485,7 +3485,7 @@
       </c>
       <c r="F66"/>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:6">
       <c r="B67" s="1">
         <v>20170704</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>30.666666666666668</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:6">
       <c r="B68" s="1">
         <v>20170704</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>30.666666666666668</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:6">
       <c r="B69" s="1">
         <v>20170704</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>16.666666666666668</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:6">
       <c r="B70" s="1">
         <v>20170704</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>16.666666666666668</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:6">
       <c r="B71" s="1">
         <v>20170711</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>62.4</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:6">
       <c r="B72" s="1">
         <v>20170711</v>
       </c>
@@ -3575,7 +3575,7 @@
         <v>50.4</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:6">
       <c r="B73" s="1">
         <v>20170711</v>
       </c>
@@ -3590,7 +3590,7 @@
         <v>50.4</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:6">
       <c r="B74" s="1">
         <v>20170711</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>50.4</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:6">
       <c r="B75" s="1">
         <v>20170711</v>
       </c>
@@ -3628,27 +3628,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.58203125" style="2"/>
-    <col min="2" max="2" width="9.08203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="46.08203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.625" style="2"/>
+    <col min="2" max="2" width="9.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="46.125" style="2" customWidth="1"/>
     <col min="4" max="4" width="12.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.58203125" style="3"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.625" style="3"/>
+    <col min="6" max="6" width="12.375" customWidth="1"/>
     <col min="7" max="7" width="17.75" customWidth="1"/>
-    <col min="8" max="8" width="22.08203125" customWidth="1"/>
-    <col min="9" max="9" width="34.08203125" customWidth="1"/>
+    <col min="8" max="8" width="22.125" customWidth="1"/>
+    <col min="9" max="9" width="34.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -3669,7 +3669,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>48</v>
       </c>
@@ -3684,54 +3684,54 @@
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="H5" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5">
       <c r="A37"/>
       <c r="B37"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5">
       <c r="A38"/>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5">
       <c r="A39"/>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5">
       <c r="A40"/>
       <c r="E40" s="1"/>
     </row>
-    <row r="57" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="5:8">
       <c r="E57"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="5:8">
       <c r="E58"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="5:8">
       <c r="E59"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="5:8">
       <c r="E60"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="64" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="5:8">
       <c r="E64"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="5:8">
       <c r="E65"/>
       <c r="H65" s="1"/>
     </row>
@@ -3743,19 +3743,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E108"/>
   <sheetViews>
     <sheetView topLeftCell="A56" workbookViewId="0">
       <selection activeCell="C74" sqref="C74:C76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="9.08203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="B2" t="s">
         <v>23</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="B3" t="s">
         <v>13</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="B4" t="s">
         <v>54</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -3828,7 +3828,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="B6" t="s">
         <v>13</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="B7" t="s">
         <v>54</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="B8" t="s">
         <v>4</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="B9" t="s">
         <v>13</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="B10" t="s">
         <v>52</v>
       </c>
@@ -3898,7 +3898,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="B11" t="s">
         <v>4</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="B13" t="s">
         <v>52</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="B14" t="s">
         <v>4</v>
       </c>
@@ -3954,7 +3954,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="B15" t="s">
         <v>13</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="B16" t="s">
         <v>52</v>
       </c>
@@ -3982,7 +3982,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5">
       <c r="B17" t="s">
         <v>4</v>
       </c>
@@ -3996,7 +3996,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5">
       <c r="B18" t="s">
         <v>13</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5">
       <c r="B19" t="s">
         <v>52</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5">
       <c r="B20" t="s">
         <v>4</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5">
       <c r="B21" t="s">
         <v>13</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5">
       <c r="B22" t="s">
         <v>52</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5">
       <c r="B23" t="s">
         <v>4</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5">
       <c r="B24" t="s">
         <v>13</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5">
       <c r="B25" t="s">
         <v>52</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5">
       <c r="B26" t="s">
         <v>4</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5">
       <c r="B27" t="s">
         <v>13</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5">
       <c r="B28" t="s">
         <v>52</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5">
       <c r="B29" t="s">
         <v>4</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5">
       <c r="B30" t="s">
         <v>13</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5">
       <c r="B31" t="s">
         <v>52</v>
       </c>
@@ -4192,7 +4192,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5">
       <c r="B32" t="s">
         <v>4</v>
       </c>
@@ -4206,7 +4206,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5">
       <c r="B33" t="s">
         <v>13</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5">
       <c r="B34" t="s">
         <v>52</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5">
       <c r="B35" t="s">
         <v>4</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5">
       <c r="B36" t="s">
         <v>13</v>
       </c>
@@ -4262,7 +4262,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5">
       <c r="B37" t="s">
         <v>52</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5">
       <c r="B38" t="s">
         <v>4</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5">
       <c r="B39" t="s">
         <v>13</v>
       </c>
@@ -4304,7 +4304,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:5">
       <c r="B40" t="s">
         <v>52</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:5">
       <c r="B41" t="s">
         <v>4</v>
       </c>
@@ -4332,7 +4332,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:5">
       <c r="B42" t="s">
         <v>13</v>
       </c>
@@ -4346,7 +4346,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:5">
       <c r="B43" t="s">
         <v>52</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:5">
       <c r="B44" t="s">
         <v>4</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:5">
       <c r="B45" t="s">
         <v>13</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:5">
       <c r="B46" t="s">
         <v>52</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:5">
       <c r="B47" t="s">
         <v>190</v>
       </c>
@@ -4416,7 +4416,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:5">
       <c r="B48" t="s">
         <v>13</v>
       </c>
@@ -4430,7 +4430,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:5">
       <c r="B49" t="s">
         <v>52</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:5">
       <c r="B50" t="s">
         <v>190</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:5">
       <c r="B51" t="s">
         <v>13</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:5">
       <c r="B52" t="s">
         <v>52</v>
       </c>
@@ -4486,7 +4486,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:5">
       <c r="B53" t="s">
         <v>190</v>
       </c>
@@ -4500,7 +4500,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:5">
       <c r="B54" t="s">
         <v>13</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:5">
       <c r="B55" t="s">
         <v>52</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:5">
       <c r="B56" t="s">
         <v>111</v>
       </c>
@@ -4542,7 +4542,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:5">
       <c r="B57" t="s">
         <v>13</v>
       </c>
@@ -4556,7 +4556,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:5">
       <c r="B58" t="s">
         <v>52</v>
       </c>
@@ -4570,7 +4570,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:5">
       <c r="B59" t="s">
         <v>111</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:5">
       <c r="B60" t="s">
         <v>13</v>
       </c>
@@ -4598,7 +4598,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:5">
       <c r="B61" t="s">
         <v>52</v>
       </c>
@@ -4612,7 +4612,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:5">
       <c r="B62" t="s">
         <v>111</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:5">
       <c r="B63" t="s">
         <v>13</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:5">
       <c r="B64" t="s">
         <v>52</v>
       </c>
@@ -4654,7 +4654,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:5">
       <c r="B65" t="s">
         <v>4</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:5">
       <c r="B66" t="s">
         <v>13</v>
       </c>
@@ -4682,7 +4682,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:5">
       <c r="B67" t="s">
         <v>52</v>
       </c>
@@ -4696,7 +4696,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:5">
       <c r="B68" t="s">
         <v>4</v>
       </c>
@@ -4710,7 +4710,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:5">
       <c r="B69" t="s">
         <v>13</v>
       </c>
@@ -4724,7 +4724,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:5">
       <c r="B70" t="s">
         <v>52</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:5">
       <c r="B71" t="s">
         <v>4</v>
       </c>
@@ -4752,7 +4752,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:5">
       <c r="B72" t="s">
         <v>13</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:5">
       <c r="B73" t="s">
         <v>52</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:5">
       <c r="B74" t="s">
         <v>4</v>
       </c>
@@ -4794,7 +4794,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:5">
       <c r="B75" t="s">
         <v>13</v>
       </c>
@@ -4808,7 +4808,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:5">
       <c r="B76" t="s">
         <v>52</v>
       </c>
@@ -4822,119 +4822,119 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:5">
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:5">
       <c r="D78" s="6"/>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:5">
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:5">
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
     </row>
-    <row r="81" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:5">
       <c r="E81" s="6"/>
     </row>
-    <row r="82" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:5">
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
     </row>
-    <row r="83" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:5">
       <c r="D83" s="6"/>
       <c r="E83" s="7"/>
     </row>
-    <row r="84" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:5">
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
     </row>
-    <row r="85" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:5">
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
     </row>
-    <row r="86" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:5">
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
     </row>
-    <row r="87" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:5">
       <c r="D87" s="7"/>
     </row>
-    <row r="88" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:5">
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
     </row>
-    <row r="90" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:5">
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
     </row>
-    <row r="92" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:5">
       <c r="D92" s="6"/>
       <c r="E92" s="6"/>
     </row>
-    <row r="93" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:5">
       <c r="E93" s="6"/>
     </row>
-    <row r="94" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="4:5">
       <c r="D94" s="6"/>
       <c r="E94" s="6"/>
     </row>
-    <row r="95" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="4:5">
       <c r="D95" s="6"/>
       <c r="E95" s="7"/>
     </row>
-    <row r="96" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:5">
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
     </row>
-    <row r="97" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:5">
       <c r="D97" s="6"/>
       <c r="E97" s="7"/>
     </row>
-    <row r="98" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:5">
       <c r="D98" s="6"/>
       <c r="E98" s="6"/>
     </row>
-    <row r="99" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:5">
       <c r="D99" s="6"/>
       <c r="E99" s="7"/>
     </row>
-    <row r="100" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:5">
       <c r="D100" s="6"/>
       <c r="E100" s="6"/>
     </row>
-    <row r="101" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:5">
       <c r="D101" s="6"/>
       <c r="E101" s="7"/>
     </row>
-    <row r="102" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="4:5">
       <c r="D102" s="6"/>
       <c r="E102" s="6"/>
     </row>
-    <row r="103" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="4:5">
       <c r="D103" s="6"/>
       <c r="E103" s="7"/>
     </row>
-    <row r="104" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:5">
       <c r="D104" s="6"/>
       <c r="E104" s="6"/>
     </row>
-    <row r="105" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:5">
       <c r="D105" s="6"/>
       <c r="E105" s="7"/>
     </row>
-    <row r="106" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="4:5">
       <c r="D106" s="6"/>
       <c r="E106" s="6"/>
     </row>
-    <row r="107" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="4:5">
       <c r="D107" s="6"/>
       <c r="E107" s="7"/>
     </row>
-    <row r="108" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:5">
       <c r="D108" s="6"/>
       <c r="E108" s="6"/>
     </row>
@@ -4946,19 +4946,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="C72" sqref="C72:C75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="9.08203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -4975,7 +4975,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="B2" t="s">
         <v>27</v>
       </c>
@@ -4989,7 +4989,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="B3" t="s">
         <v>28</v>
       </c>
@@ -5003,7 +5003,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="B4" t="s">
         <v>27</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="B5" t="s">
         <v>28</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="B6" t="s">
         <v>27</v>
       </c>
@@ -5048,7 +5048,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="B7" t="s">
         <v>28</v>
       </c>
@@ -5062,7 +5062,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="B8" t="s">
         <v>27</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="B9" t="s">
         <v>28</v>
       </c>
@@ -5093,7 +5093,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="B10" t="s">
         <v>27</v>
       </c>
@@ -5110,7 +5110,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="B11" t="s">
         <v>28</v>
       </c>
@@ -5124,7 +5124,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="B12" t="s">
         <v>27</v>
       </c>
@@ -5138,7 +5138,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="B13" t="s">
         <v>28</v>
       </c>
@@ -5152,7 +5152,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="B14" t="s">
         <v>27</v>
       </c>
@@ -5166,7 +5166,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="B15" t="s">
         <v>28</v>
       </c>
@@ -5180,7 +5180,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="B16" t="s">
         <v>27</v>
       </c>
@@ -5194,7 +5194,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7">
       <c r="B17" t="s">
         <v>28</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7">
       <c r="B18" t="s">
         <v>27</v>
       </c>
@@ -5222,7 +5222,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7">
       <c r="B19" t="s">
         <v>28</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7">
       <c r="B20" t="s">
         <v>27</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7">
       <c r="B21" t="s">
         <v>28</v>
       </c>
@@ -5264,7 +5264,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7">
       <c r="B22" t="s">
         <v>27</v>
       </c>
@@ -5278,7 +5278,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7">
       <c r="B23" t="s">
         <v>28</v>
       </c>
@@ -5292,7 +5292,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7">
       <c r="B24" t="s">
         <v>27</v>
       </c>
@@ -5306,7 +5306,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7">
       <c r="B25" t="s">
         <v>28</v>
       </c>
@@ -5320,7 +5320,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7">
       <c r="B26" t="s">
         <v>27</v>
       </c>
@@ -5334,7 +5334,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7">
       <c r="B27" t="s">
         <v>28</v>
       </c>
@@ -5348,7 +5348,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7">
       <c r="B28" t="s">
         <v>27</v>
       </c>
@@ -5362,7 +5362,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7">
       <c r="B29" t="s">
         <v>28</v>
       </c>
@@ -5376,7 +5376,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7">
       <c r="B30" t="s">
         <v>175</v>
       </c>
@@ -5390,7 +5390,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7">
       <c r="B31" t="s">
         <v>178</v>
       </c>
@@ -5404,7 +5404,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7">
       <c r="B32" t="s">
         <v>27</v>
       </c>
@@ -5421,7 +5421,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8">
       <c r="B33" t="s">
         <v>28</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8">
       <c r="B34" t="s">
         <v>175</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8">
       <c r="B35" t="s">
         <v>178</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8">
       <c r="B36" t="s">
         <v>27</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8">
       <c r="B37" t="s">
         <v>28</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8">
       <c r="B38" t="s">
         <v>175</v>
       </c>
@@ -5515,7 +5515,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8">
       <c r="B39" t="s">
         <v>178</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8">
       <c r="B40" t="s">
         <v>27</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8">
       <c r="B41" t="s">
         <v>28</v>
       </c>
@@ -5575,7 +5575,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8">
       <c r="B42" t="s">
         <v>175</v>
       </c>
@@ -5589,7 +5589,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8">
       <c r="B43" t="s">
         <v>178</v>
       </c>
@@ -5603,7 +5603,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8">
       <c r="B44" t="s">
         <v>27</v>
       </c>
@@ -5617,7 +5617,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:8">
       <c r="B45" t="s">
         <v>28</v>
       </c>
@@ -5631,7 +5631,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:8">
       <c r="B46" t="s">
         <v>175</v>
       </c>
@@ -5645,7 +5645,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:8">
       <c r="B47" t="s">
         <v>178</v>
       </c>
@@ -5659,7 +5659,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:8">
       <c r="B48" t="s">
         <v>27</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:5">
       <c r="B49" t="s">
         <v>28</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:5">
       <c r="B50" t="s">
         <v>175</v>
       </c>
@@ -5701,7 +5701,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:5">
       <c r="B51" t="s">
         <v>178</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:5">
       <c r="B52" t="s">
         <v>27</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:5">
       <c r="B53" t="s">
         <v>28</v>
       </c>
@@ -5743,7 +5743,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:5">
       <c r="B54" t="s">
         <v>175</v>
       </c>
@@ -5757,7 +5757,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:5">
       <c r="B55" t="s">
         <v>178</v>
       </c>
@@ -5771,7 +5771,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:5">
       <c r="B56" t="s">
         <v>27</v>
       </c>
@@ -5785,7 +5785,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:5">
       <c r="B57" t="s">
         <v>28</v>
       </c>
@@ -5799,7 +5799,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:5">
       <c r="B58" t="s">
         <v>175</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:5">
       <c r="B59" t="s">
         <v>178</v>
       </c>
@@ -5827,7 +5827,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:5">
       <c r="B60" t="s">
         <v>27</v>
       </c>
@@ -5841,7 +5841,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:5">
       <c r="B61" t="s">
         <v>28</v>
       </c>
@@ -5855,7 +5855,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:5">
       <c r="B62" t="s">
         <v>175</v>
       </c>
@@ -5869,7 +5869,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:5">
       <c r="B63" t="s">
         <v>178</v>
       </c>
@@ -5883,7 +5883,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:5">
       <c r="B64" t="s">
         <v>27</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:5">
       <c r="B65" t="s">
         <v>28</v>
       </c>
@@ -5911,7 +5911,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:5">
       <c r="B66" t="s">
         <v>175</v>
       </c>
@@ -5925,7 +5925,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:5">
       <c r="B67" t="s">
         <v>178</v>
       </c>
@@ -5939,7 +5939,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:5">
       <c r="B68" t="s">
         <v>27</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:5">
       <c r="B69" t="s">
         <v>28</v>
       </c>
@@ -5967,7 +5967,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:5">
       <c r="B70" t="s">
         <v>175</v>
       </c>
@@ -5981,7 +5981,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:5">
       <c r="B71" t="s">
         <v>178</v>
       </c>
@@ -5995,7 +5995,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:5">
       <c r="B72" t="s">
         <v>27</v>
       </c>
@@ -6009,7 +6009,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:5">
       <c r="B73" t="s">
         <v>28</v>
       </c>
@@ -6023,7 +6023,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:5">
       <c r="B74" t="s">
         <v>175</v>
       </c>
@@ -6037,7 +6037,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:5">
       <c r="B75" t="s">
         <v>178</v>
       </c>
@@ -6059,21 +6059,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="9.08203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.58203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -6093,7 +6093,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -6133,7 +6133,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -6153,7 +6153,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -6173,7 +6173,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -6213,7 +6213,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -6240,21 +6240,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38:F45"/>
+    <sheetView topLeftCell="B34" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.6640625" customWidth="1"/>
+    <col min="4" max="4" width="43.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -6274,7 +6274,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6291,7 +6291,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6308,7 +6308,7 @@
         <v>40.299999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6325,7 +6325,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6365,7 +6365,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6385,7 +6385,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6406,7 +6406,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6426,7 +6426,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6446,7 +6446,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6466,7 +6466,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6486,7 +6486,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6506,7 +6506,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6526,7 +6526,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6546,7 +6546,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="B16">
         <v>20170702</v>
       </c>
@@ -6563,7 +6563,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6">
       <c r="B17">
         <v>20170708</v>
       </c>
@@ -6580,7 +6580,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6">
       <c r="B18">
         <v>20170709</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6">
       <c r="B19">
         <v>20170709</v>
       </c>
@@ -6614,7 +6614,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6">
       <c r="B20">
         <v>20170710</v>
       </c>
@@ -6631,7 +6631,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6">
       <c r="B21">
         <v>20170711</v>
       </c>
@@ -6648,7 +6648,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6">
       <c r="B22">
         <v>20170712</v>
       </c>
@@ -6665,7 +6665,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6">
       <c r="B23">
         <v>20170713</v>
       </c>
@@ -6682,7 +6682,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6">
       <c r="B24">
         <v>20170713</v>
       </c>
@@ -6699,7 +6699,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6">
       <c r="B25">
         <v>20170713</v>
       </c>
@@ -6716,7 +6716,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6">
       <c r="B26">
         <v>20170714</v>
       </c>
@@ -6733,7 +6733,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6">
       <c r="B27">
         <v>20170714</v>
       </c>
@@ -6747,7 +6747,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6">
       <c r="B28">
         <v>20170715</v>
       </c>
@@ -6764,7 +6764,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6">
       <c r="B29">
         <v>20170715</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6">
       <c r="B30">
         <v>20170716</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6">
       <c r="B31">
         <v>20170716</v>
       </c>
@@ -6809,7 +6809,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6">
       <c r="B32">
         <v>20170716</v>
       </c>
@@ -6826,7 +6826,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6">
       <c r="B33">
         <v>20170716</v>
       </c>
@@ -6843,7 +6843,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6">
       <c r="B34">
         <v>20170716</v>
       </c>
@@ -6860,7 +6860,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6">
       <c r="B35">
         <v>20170717</v>
       </c>
@@ -6877,7 +6877,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6">
       <c r="B36">
         <v>20170717</v>
       </c>
@@ -6894,7 +6894,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6">
       <c r="B37">
         <v>20170718</v>
       </c>
@@ -6911,7 +6911,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:6">
       <c r="B38">
         <v>20170718</v>
       </c>
@@ -6928,7 +6928,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:6">
       <c r="B39">
         <v>20170719</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:6">
       <c r="B40">
         <v>20170721</v>
       </c>
@@ -6959,7 +6959,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:6">
       <c r="B41">
         <v>20170721</v>
       </c>
@@ -6976,7 +6976,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:6">
       <c r="B42">
         <v>20170721</v>
       </c>
@@ -6993,7 +6993,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:6">
       <c r="B43">
         <v>20170722</v>
       </c>
@@ -7010,7 +7010,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:6">
       <c r="B44">
         <v>20170723</v>
       </c>
@@ -7027,7 +7027,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:6">
       <c r="B45">
         <v>20170724</v>
       </c>

--- a/莆田项目部公共开支（王曦强垫付见：其它，截止20170724）.xlsx
+++ b/莆田项目部公共开支（王曦强垫付见：其它，截止20170724）.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="逐日消费统计表" sheetId="5" r:id="rId1"/>
@@ -19,12 +19,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">公共消费权重表!$C$1:$C$65</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">莆田维养项目部签到表!$B$1:$B$96</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">其它!$C$2:$C$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">其它!$C$2:$C$46</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">人员固定消费表!$C$1:$C$22</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="253">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1044,8 +1044,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1388,29 +1388,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.08203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="79.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>20170711</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>20170712</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>20170713</v>
       </c>
@@ -1897,22 +1897,22 @@
         <v>236</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E32" s="1"/>
     </row>
   </sheetData>
@@ -1923,23 +1923,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="4"/>
-    <col min="2" max="2" width="9.125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="46.125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.58203125" style="4"/>
+    <col min="2" max="2" width="9.08203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="46.08203125" style="4" customWidth="1"/>
     <col min="4" max="4" width="12.25" style="4" customWidth="1"/>
-    <col min="5" max="5" width="34.125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="34.08203125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>571.29999999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>156.78</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>135.30000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>124.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>244.97</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>227.4</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>252.79000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>45.8</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
         <v>20170703</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <v>20170704</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
         <v>20170705</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
         <v>20170706</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
         <v>20170707</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="4">
         <v>20170708</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="2:4">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="4">
         <v>20170709</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="4">
         <v>20170710</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>272.89999999999998</v>
       </c>
     </row>
-    <row r="24" spans="2:4">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>20170711</v>
       </c>
@@ -2263,27 +2263,27 @@
         <v>272.89999999999998</v>
       </c>
     </row>
-    <row r="25" spans="2:4">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25"/>
       <c r="C25" s="1"/>
       <c r="D25"/>
     </row>
-    <row r="26" spans="2:4">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26"/>
       <c r="C26" s="1"/>
       <c r="D26"/>
     </row>
-    <row r="27" spans="2:4">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27"/>
       <c r="C27" s="1"/>
       <c r="D27"/>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28"/>
       <c r="C28" s="1"/>
       <c r="D28"/>
     </row>
-    <row r="29" spans="2:4">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B29"/>
       <c r="C29" s="1"/>
       <c r="D29"/>
@@ -2296,24 +2296,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I75"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="1"/>
-    <col min="2" max="2" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.58203125" style="1"/>
+    <col min="2" max="2" width="9.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.08203125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>42.25</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>42.25</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>42.25</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>42.25</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2585,7 +2585,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2659,7 +2659,7 @@
       <c r="F19"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>43.5</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>43.5</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>39.195</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>39.195</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>39.195</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>39.195</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>39.195</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>33.825000000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>33.825000000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>33.825000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>33.825000000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>46.25</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -3160,7 +3160,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>35.25</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>35.25</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>18.25</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -3301,7 +3301,7 @@
         <v>18.25</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>29.166666666666664</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>29.166666666666664</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>29.166666666666664</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>45.8</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B62" s="1">
         <v>20170703</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>35.75</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B63" s="1">
         <v>20170703</v>
       </c>
@@ -3439,7 +3439,7 @@
         <v>35.75</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B64" s="1">
         <v>20170703</v>
       </c>
@@ -3454,7 +3454,7 @@
         <v>35.75</v>
       </c>
     </row>
-    <row r="65" spans="2:6">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" s="1">
         <v>20170703</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>35.75</v>
       </c>
     </row>
-    <row r="66" spans="2:6">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B66" s="1">
         <v>20170704</v>
       </c>
@@ -3485,7 +3485,7 @@
       </c>
       <c r="F66"/>
     </row>
-    <row r="67" spans="2:6">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B67" s="1">
         <v>20170704</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>30.666666666666668</v>
       </c>
     </row>
-    <row r="68" spans="2:6">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B68" s="1">
         <v>20170704</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>30.666666666666668</v>
       </c>
     </row>
-    <row r="69" spans="2:6">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B69" s="1">
         <v>20170704</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>16.666666666666668</v>
       </c>
     </row>
-    <row r="70" spans="2:6">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" s="1">
         <v>20170704</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>16.666666666666668</v>
       </c>
     </row>
-    <row r="71" spans="2:6">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B71" s="1">
         <v>20170711</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>62.4</v>
       </c>
     </row>
-    <row r="72" spans="2:6">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B72" s="1">
         <v>20170711</v>
       </c>
@@ -3575,7 +3575,7 @@
         <v>50.4</v>
       </c>
     </row>
-    <row r="73" spans="2:6">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B73" s="1">
         <v>20170711</v>
       </c>
@@ -3590,7 +3590,7 @@
         <v>50.4</v>
       </c>
     </row>
-    <row r="74" spans="2:6">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B74" s="1">
         <v>20170711</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>50.4</v>
       </c>
     </row>
-    <row r="75" spans="2:6">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75" s="1">
         <v>20170711</v>
       </c>
@@ -3628,27 +3628,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="2"/>
-    <col min="2" max="2" width="9.125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="46.125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.58203125" style="2"/>
+    <col min="2" max="2" width="9.08203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="46.08203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="12.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.625" style="3"/>
-    <col min="6" max="6" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="8.58203125" style="3"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
     <col min="7" max="7" width="17.75" customWidth="1"/>
-    <col min="8" max="8" width="22.125" customWidth="1"/>
-    <col min="9" max="9" width="34.125" customWidth="1"/>
+    <col min="8" max="8" width="22.08203125" customWidth="1"/>
+    <col min="9" max="9" width="34.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -3669,7 +3669,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>48</v>
       </c>
@@ -3684,54 +3684,54 @@
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H5" s="1"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37"/>
       <c r="B37"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38"/>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39"/>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40"/>
       <c r="E40" s="1"/>
     </row>
-    <row r="57" spans="5:8">
+    <row r="57" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E57"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="5:8">
+    <row r="58" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E58"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="5:8">
+    <row r="59" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E59"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="5:8">
+    <row r="60" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E60"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="64" spans="5:8">
+    <row r="64" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E64"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="5:8">
+    <row r="65" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E65"/>
       <c r="H65" s="1"/>
     </row>
@@ -3743,19 +3743,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E108"/>
   <sheetViews>
     <sheetView topLeftCell="A56" workbookViewId="0">
       <selection activeCell="C74" sqref="C74:C76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>23</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>13</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>54</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -3828,7 +3828,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>13</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>54</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>4</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>13</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>52</v>
       </c>
@@ -3898,7 +3898,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>4</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>52</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>4</v>
       </c>
@@ -3954,7 +3954,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>13</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>52</v>
       </c>
@@ -3982,7 +3982,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>4</v>
       </c>
@@ -3996,7 +3996,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>13</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>52</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>4</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>13</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>52</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="2:5">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>4</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="2:5">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>13</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>52</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:5">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>4</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="2:5">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>13</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="2:5">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>52</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="2:5">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>4</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="2:5">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>13</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:5">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>52</v>
       </c>
@@ -4192,7 +4192,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="2:5">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>4</v>
       </c>
@@ -4206,7 +4206,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="33" spans="2:5">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>13</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="2:5">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>52</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="2:5">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>4</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="2:5">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>13</v>
       </c>
@@ -4262,7 +4262,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="2:5">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>52</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="38" spans="2:5">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>4</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="2:5">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>13</v>
       </c>
@@ -4304,7 +4304,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="2:5">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>52</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="2:5">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>4</v>
       </c>
@@ -4332,7 +4332,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="2:5">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>13</v>
       </c>
@@ -4346,7 +4346,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="2:5">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>52</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="2:5">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>4</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="2:5">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>13</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="2:5">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>52</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="2:5">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>190</v>
       </c>
@@ -4416,7 +4416,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="48" spans="2:5">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>13</v>
       </c>
@@ -4430,7 +4430,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="2:5">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>52</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="2:5">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>190</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="2:5">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>13</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="2:5">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>52</v>
       </c>
@@ -4486,7 +4486,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="53" spans="2:5">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>190</v>
       </c>
@@ -4500,7 +4500,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="54" spans="2:5">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>13</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="55" spans="2:5">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>52</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="56" spans="2:5">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>111</v>
       </c>
@@ -4542,7 +4542,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="57" spans="2:5">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>13</v>
       </c>
@@ -4556,7 +4556,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="58" spans="2:5">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>52</v>
       </c>
@@ -4570,7 +4570,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="59" spans="2:5">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>111</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="60" spans="2:5">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>13</v>
       </c>
@@ -4598,7 +4598,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="61" spans="2:5">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>52</v>
       </c>
@@ -4612,7 +4612,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="2:5">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>111</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="63" spans="2:5">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>13</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="64" spans="2:5">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>52</v>
       </c>
@@ -4654,7 +4654,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="65" spans="2:5">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>4</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="2:5">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>13</v>
       </c>
@@ -4682,7 +4682,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="2:5">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>52</v>
       </c>
@@ -4696,7 +4696,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="2:5">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>4</v>
       </c>
@@ -4710,7 +4710,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="69" spans="2:5">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>13</v>
       </c>
@@ -4724,7 +4724,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="2:5">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>52</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="2:5">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>4</v>
       </c>
@@ -4752,7 +4752,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="2:5">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>13</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="73" spans="2:5">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>52</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="2:5">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>4</v>
       </c>
@@ -4794,7 +4794,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="75" spans="2:5">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>13</v>
       </c>
@@ -4808,7 +4808,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="2:5">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>52</v>
       </c>
@@ -4822,119 +4822,119 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="2:5">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
     </row>
-    <row r="78" spans="2:5">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D78" s="6"/>
     </row>
-    <row r="79" spans="2:5">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
     </row>
-    <row r="80" spans="2:5">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
     </row>
-    <row r="81" spans="4:5">
+    <row r="81" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E81" s="6"/>
     </row>
-    <row r="82" spans="4:5">
+    <row r="82" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
     </row>
-    <row r="83" spans="4:5">
+    <row r="83" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D83" s="6"/>
       <c r="E83" s="7"/>
     </row>
-    <row r="84" spans="4:5">
+    <row r="84" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
     </row>
-    <row r="85" spans="4:5">
+    <row r="85" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
     </row>
-    <row r="86" spans="4:5">
+    <row r="86" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
     </row>
-    <row r="87" spans="4:5">
+    <row r="87" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D87" s="7"/>
     </row>
-    <row r="88" spans="4:5">
+    <row r="88" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
     </row>
-    <row r="90" spans="4:5">
+    <row r="90" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
     </row>
-    <row r="92" spans="4:5">
+    <row r="92" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D92" s="6"/>
       <c r="E92" s="6"/>
     </row>
-    <row r="93" spans="4:5">
+    <row r="93" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E93" s="6"/>
     </row>
-    <row r="94" spans="4:5">
+    <row r="94" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D94" s="6"/>
       <c r="E94" s="6"/>
     </row>
-    <row r="95" spans="4:5">
+    <row r="95" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D95" s="6"/>
       <c r="E95" s="7"/>
     </row>
-    <row r="96" spans="4:5">
+    <row r="96" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
     </row>
-    <row r="97" spans="4:5">
+    <row r="97" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D97" s="6"/>
       <c r="E97" s="7"/>
     </row>
-    <row r="98" spans="4:5">
+    <row r="98" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D98" s="6"/>
       <c r="E98" s="6"/>
     </row>
-    <row r="99" spans="4:5">
+    <row r="99" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D99" s="6"/>
       <c r="E99" s="7"/>
     </row>
-    <row r="100" spans="4:5">
+    <row r="100" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D100" s="6"/>
       <c r="E100" s="6"/>
     </row>
-    <row r="101" spans="4:5">
+    <row r="101" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D101" s="6"/>
       <c r="E101" s="7"/>
     </row>
-    <row r="102" spans="4:5">
+    <row r="102" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D102" s="6"/>
       <c r="E102" s="6"/>
     </row>
-    <row r="103" spans="4:5">
+    <row r="103" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D103" s="6"/>
       <c r="E103" s="7"/>
     </row>
-    <row r="104" spans="4:5">
+    <row r="104" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D104" s="6"/>
       <c r="E104" s="6"/>
     </row>
-    <row r="105" spans="4:5">
+    <row r="105" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D105" s="6"/>
       <c r="E105" s="7"/>
     </row>
-    <row r="106" spans="4:5">
+    <row r="106" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D106" s="6"/>
       <c r="E106" s="6"/>
     </row>
-    <row r="107" spans="4:5">
+    <row r="107" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D107" s="6"/>
       <c r="E107" s="7"/>
     </row>
-    <row r="108" spans="4:5">
+    <row r="108" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D108" s="6"/>
       <c r="E108" s="6"/>
     </row>
@@ -4946,19 +4946,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72:C75"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="I82" sqref="I82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -4975,7 +4975,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>27</v>
       </c>
@@ -4989,7 +4989,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>28</v>
       </c>
@@ -5003,7 +5003,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>27</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>28</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>27</v>
       </c>
@@ -5048,7 +5048,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>28</v>
       </c>
@@ -5062,7 +5062,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>27</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>28</v>
       </c>
@@ -5093,7 +5093,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>27</v>
       </c>
@@ -5110,7 +5110,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>28</v>
       </c>
@@ -5124,7 +5124,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>27</v>
       </c>
@@ -5138,7 +5138,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>28</v>
       </c>
@@ -5152,7 +5152,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>27</v>
       </c>
@@ -5166,7 +5166,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>28</v>
       </c>
@@ -5180,7 +5180,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>27</v>
       </c>
@@ -5194,7 +5194,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>28</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>27</v>
       </c>
@@ -5222,7 +5222,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>28</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>27</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>28</v>
       </c>
@@ -5264,7 +5264,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>27</v>
       </c>
@@ -5278,7 +5278,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>28</v>
       </c>
@@ -5292,7 +5292,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>27</v>
       </c>
@@ -5306,7 +5306,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>28</v>
       </c>
@@ -5320,7 +5320,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>27</v>
       </c>
@@ -5334,7 +5334,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>28</v>
       </c>
@@ -5348,7 +5348,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:7">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>27</v>
       </c>
@@ -5362,7 +5362,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="2:7">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>28</v>
       </c>
@@ -5376,7 +5376,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="2:7">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>175</v>
       </c>
@@ -5390,7 +5390,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="31" spans="2:7">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>178</v>
       </c>
@@ -5404,7 +5404,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="32" spans="2:7">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>27</v>
       </c>
@@ -5421,7 +5421,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>28</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="2:8">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>175</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="35" spans="2:8">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>178</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="36" spans="2:8">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>27</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="2:8">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>28</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="38" spans="2:8">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>175</v>
       </c>
@@ -5515,7 +5515,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="39" spans="2:8">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>178</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="40" spans="2:8">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>27</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="41" spans="2:8">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>28</v>
       </c>
@@ -5575,7 +5575,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="42" spans="2:8">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>175</v>
       </c>
@@ -5589,7 +5589,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="43" spans="2:8">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>178</v>
       </c>
@@ -5603,7 +5603,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="44" spans="2:8">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>27</v>
       </c>
@@ -5617,7 +5617,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="45" spans="2:8">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>28</v>
       </c>
@@ -5631,7 +5631,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="46" spans="2:8">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>175</v>
       </c>
@@ -5645,7 +5645,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="47" spans="2:8">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>178</v>
       </c>
@@ -5659,7 +5659,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="48" spans="2:8">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>27</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="2:5">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>28</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="50" spans="2:5">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>175</v>
       </c>
@@ -5701,7 +5701,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="51" spans="2:5">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>178</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="52" spans="2:5">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>27</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="2:5">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>28</v>
       </c>
@@ -5743,7 +5743,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="54" spans="2:5">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>175</v>
       </c>
@@ -5757,7 +5757,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="55" spans="2:5">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>178</v>
       </c>
@@ -5771,7 +5771,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="2:5">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>27</v>
       </c>
@@ -5785,7 +5785,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="57" spans="2:5">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>28</v>
       </c>
@@ -5799,7 +5799,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="58" spans="2:5">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>175</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="59" spans="2:5">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>178</v>
       </c>
@@ -5827,7 +5827,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="60" spans="2:5">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>27</v>
       </c>
@@ -5841,7 +5841,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="61" spans="2:5">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>28</v>
       </c>
@@ -5855,7 +5855,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="2:5">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>175</v>
       </c>
@@ -5869,7 +5869,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="2:5">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>178</v>
       </c>
@@ -5883,7 +5883,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="2:5">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>27</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="2:5">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>28</v>
       </c>
@@ -5911,7 +5911,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="2:5">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>175</v>
       </c>
@@ -5925,7 +5925,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="2:5">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>178</v>
       </c>
@@ -5939,7 +5939,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="2:5">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>27</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="69" spans="2:5">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>28</v>
       </c>
@@ -5967,7 +5967,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="2:5">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>175</v>
       </c>
@@ -5981,7 +5981,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="2:5">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>178</v>
       </c>
@@ -5995,7 +5995,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="2:5">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>27</v>
       </c>
@@ -6009,7 +6009,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="73" spans="2:5">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>28</v>
       </c>
@@ -6023,7 +6023,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="2:5">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>175</v>
       </c>
@@ -6037,7 +6037,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="2:5">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>178</v>
       </c>
@@ -6059,21 +6059,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.08203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -6093,7 +6093,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -6133,7 +6133,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -6153,7 +6153,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -6173,7 +6173,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -6213,7 +6213,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -6240,21 +6240,22 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView topLeftCell="B34" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="D33" workbookViewId="0">
+      <selection activeCell="N56" sqref="N56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -6274,7 +6275,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6290,8 +6291,19 @@
       <c r="E2">
         <v>99</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="H2">
+        <f>99+56+35+42</f>
+        <v>232</v>
+      </c>
+      <c r="I2">
+        <f>SUM(E19:E42)</f>
+        <v>2398.2000000000003</v>
+      </c>
+      <c r="J2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6307,8 +6319,11 @@
       <c r="E3">
         <v>40.299999999999997</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="J3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6324,8 +6339,11 @@
       <c r="E4">
         <v>56</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="J4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6344,8 +6362,11 @@
       <c r="F5" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="J5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6364,8 +6385,11 @@
       <c r="F6" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="J6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6385,7 +6409,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6406,7 +6430,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6426,7 +6450,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6446,7 +6470,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6466,7 +6490,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6486,7 +6510,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6506,7 +6530,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6526,7 +6550,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6546,7 +6570,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>20170702</v>
       </c>
@@ -6563,7 +6587,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>20170708</v>
       </c>
@@ -6580,7 +6604,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>20170709</v>
       </c>
@@ -6597,7 +6621,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>20170709</v>
       </c>
@@ -6613,8 +6637,11 @@
       <c r="F19" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="20" spans="2:6">
+      <c r="J19">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>20170710</v>
       </c>
@@ -6630,8 +6657,11 @@
       <c r="F20" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="21" spans="2:6">
+      <c r="J20">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>20170711</v>
       </c>
@@ -6647,8 +6677,11 @@
       <c r="F21" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="22" spans="2:6">
+      <c r="J21">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>20170712</v>
       </c>
@@ -6664,8 +6697,11 @@
       <c r="F22" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="23" spans="2:6">
+      <c r="J22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>20170713</v>
       </c>
@@ -6681,8 +6717,14 @@
       <c r="F23" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="24" spans="2:6">
+      <c r="G23">
+        <v>98</v>
+      </c>
+      <c r="J23">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>20170713</v>
       </c>
@@ -6698,8 +6740,11 @@
       <c r="F24" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="25" spans="2:6">
+      <c r="G24">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>20170713</v>
       </c>
@@ -6715,8 +6760,23 @@
       <c r="F25" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="26" spans="2:6">
+      <c r="G25">
+        <v>162.19999999999999</v>
+      </c>
+      <c r="K25">
+        <v>20170624</v>
+      </c>
+      <c r="L25" t="s">
+        <v>52</v>
+      </c>
+      <c r="M25" t="s">
+        <v>72</v>
+      </c>
+      <c r="N25">
+        <v>40.299999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>20170714</v>
       </c>
@@ -6732,8 +6792,23 @@
       <c r="F26" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="27" spans="2:6">
+      <c r="G26">
+        <v>61</v>
+      </c>
+      <c r="K26">
+        <v>20170628</v>
+      </c>
+      <c r="L26" t="s">
+        <v>135</v>
+      </c>
+      <c r="M26" t="s">
+        <v>136</v>
+      </c>
+      <c r="N26">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>20170714</v>
       </c>
@@ -6746,8 +6821,23 @@
       <c r="F27" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="28" spans="2:6">
+      <c r="G27">
+        <v>99.1</v>
+      </c>
+      <c r="K27">
+        <v>20170628</v>
+      </c>
+      <c r="L27" t="s">
+        <v>138</v>
+      </c>
+      <c r="M27" t="s">
+        <v>135</v>
+      </c>
+      <c r="N27">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>20170715</v>
       </c>
@@ -6763,8 +6853,23 @@
       <c r="F28" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="29" spans="2:6">
+      <c r="G28">
+        <v>208</v>
+      </c>
+      <c r="K28">
+        <v>20170629</v>
+      </c>
+      <c r="L28" t="s">
+        <v>52</v>
+      </c>
+      <c r="M28" t="s">
+        <v>52</v>
+      </c>
+      <c r="N28">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>20170715</v>
       </c>
@@ -6777,8 +6882,23 @@
       <c r="F29" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="30" spans="2:6">
+      <c r="G29">
+        <v>18</v>
+      </c>
+      <c r="K29">
+        <v>20170702</v>
+      </c>
+      <c r="L29" t="s">
+        <v>179</v>
+      </c>
+      <c r="M29" t="s">
+        <v>180</v>
+      </c>
+      <c r="N29">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>20170716</v>
       </c>
@@ -6794,8 +6914,23 @@
       <c r="F30" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="31" spans="2:6">
+      <c r="G30">
+        <v>40</v>
+      </c>
+      <c r="K30">
+        <v>20170708</v>
+      </c>
+      <c r="L30" t="s">
+        <v>204</v>
+      </c>
+      <c r="M30" t="s">
+        <v>205</v>
+      </c>
+      <c r="N30">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>20170716</v>
       </c>
@@ -6808,8 +6943,23 @@
       <c r="F31" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="32" spans="2:6">
+      <c r="G31">
+        <v>18</v>
+      </c>
+      <c r="K31">
+        <v>20170709</v>
+      </c>
+      <c r="L31" t="s">
+        <v>207</v>
+      </c>
+      <c r="M31" t="s">
+        <v>208</v>
+      </c>
+      <c r="N31">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>20170716</v>
       </c>
@@ -6825,8 +6975,23 @@
       <c r="F32" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="33" spans="2:6">
+      <c r="G32">
+        <v>513</v>
+      </c>
+      <c r="K32">
+        <v>20170711</v>
+      </c>
+      <c r="L32" t="s">
+        <v>226</v>
+      </c>
+      <c r="M32" t="s">
+        <v>229</v>
+      </c>
+      <c r="N32">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>20170716</v>
       </c>
@@ -6842,8 +7007,23 @@
       <c r="F33" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="34" spans="2:6">
+      <c r="G33">
+        <v>153</v>
+      </c>
+      <c r="K33">
+        <v>20170713</v>
+      </c>
+      <c r="L33" t="s">
+        <v>233</v>
+      </c>
+      <c r="M33" t="s">
+        <v>234</v>
+      </c>
+      <c r="N33">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>20170716</v>
       </c>
@@ -6859,8 +7039,23 @@
       <c r="F34" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="35" spans="2:6">
+      <c r="G34">
+        <v>380</v>
+      </c>
+      <c r="K34">
+        <v>20170713</v>
+      </c>
+      <c r="L34" t="s">
+        <v>239</v>
+      </c>
+      <c r="M34" t="s">
+        <v>240</v>
+      </c>
+      <c r="N34">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>20170717</v>
       </c>
@@ -6876,8 +7071,23 @@
       <c r="F35" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="36" spans="2:6">
+      <c r="G35">
+        <v>19</v>
+      </c>
+      <c r="K35">
+        <v>20170713</v>
+      </c>
+      <c r="L35" t="s">
+        <v>239</v>
+      </c>
+      <c r="M35" t="s">
+        <v>243</v>
+      </c>
+      <c r="N35">
+        <v>162.19999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>20170717</v>
       </c>
@@ -6893,8 +7103,23 @@
       <c r="F36" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="37" spans="2:6">
+      <c r="G36">
+        <v>71</v>
+      </c>
+      <c r="K36">
+        <v>20170714</v>
+      </c>
+      <c r="L36" t="s">
+        <v>239</v>
+      </c>
+      <c r="M36" t="s">
+        <v>244</v>
+      </c>
+      <c r="N36">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>20170718</v>
       </c>
@@ -6910,8 +7135,20 @@
       <c r="F37" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="38" spans="2:6">
+      <c r="J37">
+        <v>38</v>
+      </c>
+      <c r="K37">
+        <v>20170714</v>
+      </c>
+      <c r="L37" t="s">
+        <v>239</v>
+      </c>
+      <c r="N37">
+        <v>99.1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>20170718</v>
       </c>
@@ -6927,8 +7164,23 @@
       <c r="F38" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="39" spans="2:6">
+      <c r="G38">
+        <v>33.5</v>
+      </c>
+      <c r="K38">
+        <v>20170715</v>
+      </c>
+      <c r="L38" t="s">
+        <v>239</v>
+      </c>
+      <c r="M38" t="s">
+        <v>245</v>
+      </c>
+      <c r="N38">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>20170719</v>
       </c>
@@ -6944,8 +7196,20 @@
       <c r="F39" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="40" spans="2:6">
+      <c r="G39">
+        <v>84</v>
+      </c>
+      <c r="K39">
+        <v>20170715</v>
+      </c>
+      <c r="L39" t="s">
+        <v>239</v>
+      </c>
+      <c r="N39">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>20170721</v>
       </c>
@@ -6958,8 +7222,26 @@
       <c r="F40" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="41" spans="2:6">
+      <c r="G40">
+        <v>18</v>
+      </c>
+      <c r="I40">
+        <v>19</v>
+      </c>
+      <c r="K40">
+        <v>20170716</v>
+      </c>
+      <c r="L40" t="s">
+        <v>239</v>
+      </c>
+      <c r="M40" t="s">
+        <v>244</v>
+      </c>
+      <c r="N40">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>20170721</v>
       </c>
@@ -6975,8 +7257,23 @@
       <c r="F41" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="42" spans="2:6">
+      <c r="G41">
+        <v>62.4</v>
+      </c>
+      <c r="I41">
+        <v>36</v>
+      </c>
+      <c r="K41">
+        <v>20170716</v>
+      </c>
+      <c r="L41" t="s">
+        <v>239</v>
+      </c>
+      <c r="N41">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>20170721</v>
       </c>
@@ -6992,8 +7289,23 @@
       <c r="F42" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="43" spans="2:6">
+      <c r="I42">
+        <v>35</v>
+      </c>
+      <c r="K42">
+        <v>20170716</v>
+      </c>
+      <c r="L42" t="s">
+        <v>239</v>
+      </c>
+      <c r="M42" t="s">
+        <v>250</v>
+      </c>
+      <c r="N42">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>20170722</v>
       </c>
@@ -7009,8 +7321,26 @@
       <c r="F43" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="44" spans="2:6">
+      <c r="G43">
+        <v>223</v>
+      </c>
+      <c r="I43">
+        <v>30</v>
+      </c>
+      <c r="K43">
+        <v>20170716</v>
+      </c>
+      <c r="L43" t="s">
+        <v>239</v>
+      </c>
+      <c r="M43" t="s">
+        <v>250</v>
+      </c>
+      <c r="N43">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44">
         <v>20170723</v>
       </c>
@@ -7026,8 +7356,26 @@
       <c r="F44" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="45" spans="2:6">
+      <c r="G44">
+        <v>32</v>
+      </c>
+      <c r="I44">
+        <v>38</v>
+      </c>
+      <c r="K44">
+        <v>20170716</v>
+      </c>
+      <c r="L44" t="s">
+        <v>239</v>
+      </c>
+      <c r="M44" t="s">
+        <v>249</v>
+      </c>
+      <c r="N44">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>20170724</v>
       </c>
@@ -7043,9 +7391,236 @@
       <c r="F45" t="s">
         <v>242</v>
       </c>
+      <c r="G45">
+        <v>103</v>
+      </c>
+      <c r="I45">
+        <f>SUM(I40:I44)</f>
+        <v>158</v>
+      </c>
+      <c r="K45">
+        <v>20170717</v>
+      </c>
+      <c r="L45" t="s">
+        <v>239</v>
+      </c>
+      <c r="M45" t="s">
+        <v>244</v>
+      </c>
+      <c r="N45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G46">
+        <f>SUM(G23:G45)</f>
+        <v>2558.2000000000003</v>
+      </c>
+      <c r="K46">
+        <v>20170717</v>
+      </c>
+      <c r="L46" t="s">
+        <v>239</v>
+      </c>
+      <c r="M46" t="s">
+        <v>244</v>
+      </c>
+      <c r="N46">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="K47">
+        <v>20170718</v>
+      </c>
+      <c r="L47" t="s">
+        <v>239</v>
+      </c>
+      <c r="M47" t="s">
+        <v>244</v>
+      </c>
+      <c r="N47">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="K48">
+        <v>20170719</v>
+      </c>
+      <c r="L48" t="s">
+        <v>239</v>
+      </c>
+      <c r="M48" t="s">
+        <v>244</v>
+      </c>
+      <c r="N48">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="H49">
+        <v>20170709</v>
+      </c>
+      <c r="K49">
+        <v>20170721</v>
+      </c>
+      <c r="L49" t="s">
+        <v>239</v>
+      </c>
+      <c r="N49">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="H50">
+        <v>20170710</v>
+      </c>
+      <c r="K50">
+        <v>20170721</v>
+      </c>
+      <c r="L50" t="s">
+        <v>239</v>
+      </c>
+      <c r="M50" t="s">
+        <v>239</v>
+      </c>
+      <c r="N50">
+        <v>62.4</v>
+      </c>
+    </row>
+    <row r="51" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="H51">
+        <v>20170712</v>
+      </c>
+      <c r="K51">
+        <v>20170722</v>
+      </c>
+      <c r="L51" t="s">
+        <v>239</v>
+      </c>
+      <c r="M51" t="s">
+        <v>244</v>
+      </c>
+      <c r="N51">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="52" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="H52">
+        <v>20170718</v>
+      </c>
+      <c r="K52">
+        <v>20170723</v>
+      </c>
+      <c r="L52" t="s">
+        <v>239</v>
+      </c>
+      <c r="M52" t="s">
+        <v>244</v>
+      </c>
+      <c r="N52">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="H53">
+        <v>20170721</v>
+      </c>
+      <c r="K53">
+        <v>20170724</v>
+      </c>
+      <c r="L53" t="s">
+        <v>239</v>
+      </c>
+      <c r="M53" t="s">
+        <v>244</v>
+      </c>
+      <c r="N53">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="K54">
+        <f>SUM(K49:K53)</f>
+        <v>100853611</v>
+      </c>
+    </row>
+    <row r="56" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="N56">
+        <f>SUM(N25:N53)</f>
+        <v>2827.5</v>
+      </c>
+    </row>
+    <row r="57" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="H57">
+        <v>20170628</v>
+      </c>
+      <c r="I57" t="s">
+        <v>82</v>
+      </c>
+      <c r="J57" t="s">
+        <v>143</v>
+      </c>
+      <c r="K57">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="H58">
+        <v>20170628</v>
+      </c>
+      <c r="I58" t="s">
+        <v>142</v>
+      </c>
+      <c r="J58" t="s">
+        <v>127</v>
+      </c>
+      <c r="K58">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="H59">
+        <v>20170629</v>
+      </c>
+      <c r="I59" t="s">
+        <v>155</v>
+      </c>
+      <c r="J59" t="s">
+        <v>82</v>
+      </c>
+      <c r="K59">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="H60">
+        <v>20170630</v>
+      </c>
+      <c r="I60" t="s">
+        <v>163</v>
+      </c>
+      <c r="J60" t="s">
+        <v>82</v>
+      </c>
+      <c r="K60">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="K61">
+        <f>SUM(K57:K60)</f>
+        <v>91</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="C2:C45"/>
+  <autoFilter ref="C2:C46">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="王曦强"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
